--- a/files/summary.xlsx
+++ b/files/summary.xlsx
@@ -25367,7 +25367,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="13" t="n">
-        <v>1410</v>
+        <v>1614</v>
       </c>
       <c r="G17" s="13" t="n">
         <v>0</v>
